--- a/biology/Histoire de la zoologie et de la botanique/Andrew_Leith_Adams/Andrew_Leith_Adams.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Andrew_Leith_Adams/Andrew_Leith_Adams.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andrew Leith Adams (né le 21 mars 1827 à Banchory et mort le 29 juillet 1882 à Cobh) est un médecin, naturaliste et géologue écossais.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Andrew Leith Adams est un médecin-militaire, qui sert dans le 22e régiment d'infanterie, vers 1848, en Inde. Vers 1865, il est l'auteur d'un important rapport sur une épidémie de choléra sévissant à Malte.
 Après sa retraite de l'armée, il consacre son temps à la zoologie et enseigne la zoologie au Royal College of Science d'Irlande, au Trinity College et au Queen's College de Dublin.
 Il publie Wanderings of a Naturalist in India, the Western Himalaya and Cashmere en 1867, Notes of a Naturalist in the Nile Valley and Malta en 1871 et Field and Forest Rambles en 1873.
-Il devient membre de la Royal Society en 1872. Il décrit la niverolle du Tibet (Montifringilla adamsi) en 1851. Celle-ci commémore son nom ce qui est inhabituel : il n’est pas d’usage qu’un zoologiste se dédie à lui-même une espèce. En fait, la niverolle aurait dû être décrite initialement par Frederic Moore (1830-1907) mais celle-ci ne paraît pas.  Aussi, la propre publication d’Adams, qui cite la publication de Moore, devient la référence de la description de l’espèce[1].
+Il devient membre de la Royal Society en 1872. Il décrit la niverolle du Tibet (Montifringilla adamsi) en 1851. Celle-ci commémore son nom ce qui est inhabituel : il n’est pas d’usage qu’un zoologiste se dédie à lui-même une espèce. En fait, la niverolle aurait dû être décrite initialement par Frederic Moore (1830-1907) mais celle-ci ne paraît pas.  Aussi, la propre publication d’Adams, qui cite la publication de Moore, devient la référence de la description de l’espèce.
 </t>
         </is>
       </c>
